--- a/stock_predictor_ai/data/cleaned/FTV.xlsx
+++ b/stock_predictor_ai/data/cleaned/FTV.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2261"/>
+  <dimension ref="A1:F2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45669,6 +45669,26 @@
         <v>153402</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2262" t="n">
+        <v>52.86000061035156</v>
+      </c>
+      <c r="C2262" t="n">
+        <v>52.97999954223633</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>52.7599983215332</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>202295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FTV.xlsx
+++ b/stock_predictor_ai/data/cleaned/FTV.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2262"/>
+  <dimension ref="A1:F2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45689,6 +45689,26 @@
         <v>202295</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2263" t="n">
+        <v>51.15000152587891</v>
+      </c>
+      <c r="C2263" t="n">
+        <v>52.31999969482422</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>51.09000015258789</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>51.7599983215332</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>4430700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FTV.xlsx
+++ b/stock_predictor_ai/data/cleaned/FTV.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2263"/>
+  <dimension ref="A1:F2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45709,6 +45709,26 @@
         <v>4430700</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2264" t="n">
+        <v>50.47999954223633</v>
+      </c>
+      <c r="C2264" t="n">
+        <v>50.90999984741211</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>50.13000106811523</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>50.72000122070312</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>372247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FTV.xlsx
+++ b/stock_predictor_ai/data/cleaned/FTV.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2264"/>
+  <dimension ref="A1:F2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45729,6 +45729,26 @@
         <v>372247</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>46.83499908447266</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>47.34999847412109</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>46.54000091552734</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>47.11999893188477</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>1565197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FTV.xlsx
+++ b/stock_predictor_ai/data/cleaned/FTV.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2265"/>
+  <dimension ref="A1:F2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45649,106 +45651,6 @@
         <v>2983300</v>
       </c>
     </row>
-    <row r="2261">
-      <c r="A2261" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2261" t="n">
-        <v>53.5099983215332</v>
-      </c>
-      <c r="C2261" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="D2261" t="n">
-        <v>53.38999938964844</v>
-      </c>
-      <c r="E2261" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F2261" t="n">
-        <v>153402</v>
-      </c>
-    </row>
-    <row r="2262">
-      <c r="A2262" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2262" t="n">
-        <v>52.86000061035156</v>
-      </c>
-      <c r="C2262" t="n">
-        <v>52.97999954223633</v>
-      </c>
-      <c r="D2262" t="n">
-        <v>52.7599983215332</v>
-      </c>
-      <c r="E2262" t="n">
-        <v>52.79999923706055</v>
-      </c>
-      <c r="F2262" t="n">
-        <v>202295</v>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2263" t="n">
-        <v>51.15000152587891</v>
-      </c>
-      <c r="C2263" t="n">
-        <v>52.31999969482422</v>
-      </c>
-      <c r="D2263" t="n">
-        <v>51.09000015258789</v>
-      </c>
-      <c r="E2263" t="n">
-        <v>51.7599983215332</v>
-      </c>
-      <c r="F2263" t="n">
-        <v>4430700</v>
-      </c>
-    </row>
-    <row r="2264">
-      <c r="A2264" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2264" t="n">
-        <v>50.47999954223633</v>
-      </c>
-      <c r="C2264" t="n">
-        <v>50.90999984741211</v>
-      </c>
-      <c r="D2264" t="n">
-        <v>50.13000106811523</v>
-      </c>
-      <c r="E2264" t="n">
-        <v>50.72000122070312</v>
-      </c>
-      <c r="F2264" t="n">
-        <v>372247</v>
-      </c>
-    </row>
-    <row r="2265">
-      <c r="A2265" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2265" t="n">
-        <v>46.83499908447266</v>
-      </c>
-      <c r="C2265" t="n">
-        <v>47.34999847412109</v>
-      </c>
-      <c r="D2265" t="n">
-        <v>46.54000091552734</v>
-      </c>
-      <c r="E2265" t="n">
-        <v>47.11999893188477</v>
-      </c>
-      <c r="F2265" t="n">
-        <v>1565197</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
